--- a/AuraInventarioProto/Doc/Usuarios test.xlsx
+++ b/AuraInventarioProto/Doc/Usuarios test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>RUT</t>
   </si>
@@ -47,13 +47,121 @@
     <t>asdasd</t>
   </si>
   <si>
-    <t>asdsd@aura.cl</t>
-  </si>
-  <si>
     <t>OF</t>
   </si>
   <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>55555555-6</t>
+  </si>
+  <si>
+    <t>55555555-7</t>
+  </si>
+  <si>
+    <t>55555555-8</t>
+  </si>
+  <si>
+    <t>55555555-9</t>
+  </si>
+  <si>
+    <t>55555555-10</t>
+  </si>
+  <si>
+    <t>55555555-11</t>
+  </si>
+  <si>
+    <t>55555555-12</t>
+  </si>
+  <si>
+    <t>55555555-13</t>
+  </si>
+  <si>
+    <t>55555555-14</t>
+  </si>
+  <si>
+    <t>55555555-15</t>
+  </si>
+  <si>
+    <t>55555555-16</t>
+  </si>
+  <si>
+    <t>55555555-17</t>
+  </si>
+  <si>
+    <t>55555555-18</t>
+  </si>
+  <si>
+    <t>55555555-19</t>
+  </si>
+  <si>
+    <t>55555555-20</t>
+  </si>
+  <si>
+    <t>55555555-21</t>
+  </si>
+  <si>
+    <t>55555555-22</t>
+  </si>
+  <si>
+    <t>55555555-23</t>
+  </si>
+  <si>
+    <t>asdasd@aura1.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura2.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura3.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura4.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura5.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura6.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura7.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura8.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura9.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura10.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura11.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura12.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura13.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura14.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura15.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura16.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura17.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura18.cl</t>
+  </si>
+  <si>
+    <t>asdasd@aura19.cl</t>
   </si>
 </sst>
 </file>
@@ -382,13 +490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -415,18 +526,324 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="asdsd@aura1.cl"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
